--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>159.778035800779</v>
+        <v>58.244295596578</v>
       </c>
       <c r="R2">
-        <v>1438.002322207011</v>
+        <v>524.198660369202</v>
       </c>
       <c r="S2">
-        <v>0.0535444385467083</v>
+        <v>0.03294484077335207</v>
       </c>
       <c r="T2">
-        <v>0.0535444385467083</v>
+        <v>0.03294484077335207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>650.3628190125182</v>
+        <v>361.269949546695</v>
       </c>
       <c r="R3">
-        <v>5853.265371112664</v>
+        <v>3251.429545920255</v>
       </c>
       <c r="S3">
-        <v>0.2179480541311672</v>
+        <v>0.2043458649830778</v>
       </c>
       <c r="T3">
-        <v>0.2179480541311672</v>
+        <v>0.2043458649830778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>213.5585918459742</v>
+        <v>144.66348023491</v>
       </c>
       <c r="R4">
-        <v>1922.027326613768</v>
+        <v>1301.97132211419</v>
       </c>
       <c r="S4">
-        <v>0.0715672516557659</v>
+        <v>0.08182630201365304</v>
       </c>
       <c r="T4">
-        <v>0.07156725165576591</v>
+        <v>0.08182630201365307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>756.9377237573434</v>
+        <v>343.7406540410429</v>
       </c>
       <c r="R5">
-        <v>6812.439513816091</v>
+        <v>3093.665886369386</v>
       </c>
       <c r="S5">
-        <v>0.2536631848694483</v>
+        <v>0.1944307334944471</v>
       </c>
       <c r="T5">
-        <v>0.2536631848694483</v>
+        <v>0.1944307334944472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>5.088725550287</v>
+        <v>3.339405933710889</v>
       </c>
       <c r="R6">
-        <v>45.798529952583</v>
+        <v>30.054653403398</v>
       </c>
       <c r="S6">
-        <v>0.001705321705469847</v>
+        <v>0.001888875050111449</v>
       </c>
       <c r="T6">
-        <v>0.001705321705469847</v>
+        <v>0.001888875050111449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>20.71322179847166</v>
@@ -883,10 +883,10 @@
         <v>186.418996186245</v>
       </c>
       <c r="S7">
-        <v>0.006941366040295243</v>
+        <v>0.01171606226951891</v>
       </c>
       <c r="T7">
-        <v>0.006941366040295243</v>
+        <v>0.01171606226951892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>6.801567295300443</v>
+        <v>8.294204253645555</v>
       </c>
       <c r="R8">
-        <v>61.214105657704</v>
+        <v>74.64783828281</v>
       </c>
       <c r="S8">
-        <v>0.002279325191596453</v>
+        <v>0.004691467819795669</v>
       </c>
       <c r="T8">
-        <v>0.002279325191596454</v>
+        <v>0.00469146781979567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>24.10749584919667</v>
+        <v>19.70818889652367</v>
       </c>
       <c r="R9">
-        <v>216.96746264277</v>
+        <v>177.373700068713</v>
       </c>
       <c r="S9">
-        <v>0.00807884715532373</v>
+        <v>0.01114758344103426</v>
       </c>
       <c r="T9">
-        <v>0.008078847155323731</v>
+        <v>0.01114758344103426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>47.471394448939</v>
+        <v>30.35614606946711</v>
       </c>
       <c r="R10">
-        <v>427.242550040451</v>
+        <v>273.205314625204</v>
       </c>
       <c r="S10">
-        <v>0.01590850175406507</v>
+        <v>0.01717040936812305</v>
       </c>
       <c r="T10">
-        <v>0.01590850175406507</v>
+        <v>0.01717040936812306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>193.2282479349183</v>
+        <v>188.2890546897233</v>
       </c>
       <c r="R11">
-        <v>1739.054231414265</v>
+        <v>1694.60149220751</v>
       </c>
       <c r="S11">
-        <v>0.06475419475014542</v>
+        <v>0.1065023254651974</v>
       </c>
       <c r="T11">
-        <v>0.06475419475014542</v>
+        <v>0.1065023254651974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>63.45004869205421</v>
+        <v>75.39666660826445</v>
       </c>
       <c r="R12">
-        <v>571.0504382284879</v>
+        <v>678.5699994743801</v>
       </c>
       <c r="S12">
-        <v>0.02126323068092681</v>
+        <v>0.04264677168482608</v>
       </c>
       <c r="T12">
-        <v>0.02126323068092681</v>
+        <v>0.04264677168482608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H13">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>224.8925459477433</v>
+        <v>179.1530208616193</v>
       </c>
       <c r="R13">
-        <v>2024.03291352969</v>
+        <v>1612.377187754574</v>
       </c>
       <c r="S13">
-        <v>0.07536545962503945</v>
+        <v>0.1013346918508846</v>
       </c>
       <c r="T13">
-        <v>0.07536545962503946</v>
+        <v>0.1013346918508847</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H14">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I14">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J14">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>55.421013458262</v>
+        <v>21.47569474721378</v>
       </c>
       <c r="R14">
-        <v>498.789121124358</v>
+        <v>193.281252724924</v>
       </c>
       <c r="S14">
-        <v>0.01857255932856908</v>
+        <v>0.01214734141253207</v>
       </c>
       <c r="T14">
-        <v>0.01857255932856909</v>
+        <v>0.01214734141253207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H15">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I15">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J15">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>225.58649168893</v>
+        <v>133.2065754824233</v>
       </c>
       <c r="R15">
-        <v>2030.27842520037</v>
+        <v>1198.85917934181</v>
       </c>
       <c r="S15">
-        <v>0.07559801308526626</v>
+        <v>0.07534590940249561</v>
       </c>
       <c r="T15">
-        <v>0.07559801308526627</v>
+        <v>0.07534590940249562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H16">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I16">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J16">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>74.07547309932265</v>
+        <v>53.33996592753111</v>
       </c>
       <c r="R16">
-        <v>666.6792578939039</v>
+        <v>480.0596933477801</v>
       </c>
       <c r="S16">
-        <v>0.02482399784993281</v>
+        <v>0.03017079469052385</v>
       </c>
       <c r="T16">
-        <v>0.02482399784993281</v>
+        <v>0.03017079469052385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>262.55333259778</v>
+        <v>126.7432163575993</v>
       </c>
       <c r="R17">
-        <v>2362.97999338002</v>
+        <v>1140.688947218394</v>
       </c>
       <c r="S17">
-        <v>0.08798625363027998</v>
+        <v>0.07169002628042674</v>
       </c>
       <c r="T17">
-        <v>0.08798625363028</v>
+        <v>0.07169002628042677</v>
       </c>
     </row>
   </sheetData>
